--- a/car_details.xlsx
+++ b/car_details.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,78 +464,108 @@
           <t>Year</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sublink_page</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_id_test</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q3 Advanced 35 TDI 110 kW (150 CV) S tronic </t>
+          <t xml:space="preserve">Audi Q5 Advanced 35 TDI 120 kW (163 CV) S tronic </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.990 €</t>
+          <t>41.950 €</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MHEV</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Diésel /</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Gris /</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Valladolid /</t>
+          <t>Gris Plata /</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.500km /</t>
+          <t>Madrid /</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://exclusive.motorflash.com/aspexclusive/coche-de-segunda_mano/audi-q5-advanced_35_tdi_120_kw_163_cv_s_tronic/ocasion/55949124-es/</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>55949124-es</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q2 S line 30 TFSI 81 kW (110 CV) </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>26.800 €</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Audi Q5 Sportback Advanced 40 TDI quattro-ultra 150 kW (204 CV) S tronic </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gasolina /</t>
+          <t>MHEV</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Diésel /</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Negro /</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Guadalajara /</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17.156km /</t>
+          <t>Madrid /</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q5_sportback-advanced_40_tdi_quattro_ultra_150_kw_204_cv_s_tronic/ocasion/61892049-es/</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>61892049-es</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q3 Black line 35 TFSI 110 kW (150 CV) S tronic </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t xml:space="preserve">Audi Q2 S line 30 TFSI 81 kW (110 CV) </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26.800 €</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Gasolina /</t>
@@ -543,185 +573,241 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rojo /</t>
+          <t>Negro /</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Madrid /</t>
+          <t>Guadalajara /</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>34.859km /</t>
+          <t>17.156km /</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-s_line_30_tfsi_81_kw_110_cv/ocasion/61679406-es/</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>61679406-es</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi SQ5 Sportback TDI quattro 251 kW (341 CV) </t>
+          <t xml:space="preserve">Audi Q3 Black line 35 TFSI 110 kW (150 CV) S tronic </t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MHEV</t>
+          <t>Gasolina /</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Diésel /</t>
+          <t>Rojo /</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Azul /</t>
+          <t>Madrid /</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Madrid /</t>
+          <t>34.859km /</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q3-black_line_35_tfsi_110_kw_150_cv_s_tronic/ocasion/61679199-es/</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>61679199-es</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q5 Sportback TFSIe Black Line 55 TFSI e quattro-ultra 270 kW (367 CV) </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>59.900 €</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Audi SQ5 Sportback TDI quattro 251 kW (341 CV) </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHEV</t>
+          <t>MHEV</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Híbrido Electro/Gasolina /</t>
+          <t>Diésel /</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Verde /</t>
+          <t>Azul /</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Madrid /</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-sq5_sportback-tdi_quattro_251_kw_341_cv/ocasion/61679187-es/</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>61679187-es</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi A3 Sportback TFSIe S line 40 TFSI e 150 kW (204 CV) S tronic </t>
+          <t xml:space="preserve">Audi Q4 e-tron Advanced 40 e-tron 150 kW (204 CV) </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30.200 €</t>
+          <t>42.000 €</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PHEV</t>
+          <t>BEV</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Híbrido Electro/Gasolina /</t>
+          <t>Eléctrico /</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Azul /</t>
+          <t>Violeta /</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Madrid /</t>
+          <t>Almería /</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://exclusive.motorflash.com/aspexclusive/coche-de-segunda_mano/audi-q4_e_tron-advanced_40_e_tron_150_kw_204_cv/ocasion/39953803-es/</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>39953803-es</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q4 Sportback e-tron Black line edition 40 e-tron 82kWh 150 kW (204 CV) </t>
+          <t xml:space="preserve">Audi Q5 Sportback TFSIe Black Line 55 TFSI e quattro-ultra 270 kW (367 CV) </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>43.300 €</t>
+          <t>59.900 €</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BEV</t>
+          <t>PHEV</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eléctrico /</t>
+          <t>Híbrido Electro/Gasolina /</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gris /</t>
+          <t>Verde /</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Madrid /</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q5_sportback_tfsie-black_line_55_tfsi_e_quattro_ultra_270_kw_367_cv/ocasion/61679151-es/</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>61679151-es</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi A1 Sportback Adrenalin edition 30 TFSI 81 kW (110 CV) S tronic </t>
+          <t xml:space="preserve">Audi Q4 Sportback e-tron Black line edition 40 e-tron 82kWh 150 kW (204 CV) </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25.300 €</t>
+          <t>43.300 €</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gasolina /</t>
+          <t>BEV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rojo /</t>
+          <t>Eléctrico /</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Madrid /</t>
+          <t>Gris /</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>22.021km /</t>
+          <t>Madrid /</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q4_sportback_e_tron-black_line_edition_40_e_tron_82kwh_150_kw_204_cv/ocasion/61679109-es/</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>61679109-es</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi A1 Sportback Adrenalin 25 TFSI 70 kW (95 CV) </t>
+          <t xml:space="preserve">Audi A1 Sportback Adrenalin edition 30 TFSI 81 kW (110 CV) S tronic </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19.900 €</t>
+          <t>25.300 €</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,39 +827,59 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>28.155km /</t>
+          <t>22.021km /</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-a1_sportback-adrenalin_edition_30_tfsi_81_kw_110_cv_s_tronic/ocasion/61678071-es/</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>61678071-es</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi A4 Black line 35 TDI 120 kW (163 CV) S tronic </t>
+          <t xml:space="preserve">Audi A1 Sportback Adrenalin 25 TFSI 70 kW (95 CV) </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>36.300 €</t>
+          <t>19.900 €</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MHEV</t>
+          <t>Gasolina /</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Diésel /</t>
+          <t>Rojo /</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Negro /</t>
+          <t>Madrid /</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Madrid /</t>
+          <t>28.155km /</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-a1_sportback-adrenalin_25_tfsi_70_kw_95_cv/ocasion/61678047-es/</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>61678047-es</t>
         </is>
       </c>
     </row>
@@ -808,6 +914,16 @@
           <t>Madrid /</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q5_sportback-advanced_40_tdi_quattro_ultra_150_kw_204_cv_s_tronic/ocasion/61488105-es/</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>61488105-es</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -840,6 +956,16 @@
           <t>13.394km /</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-a3_sportback-genuine_edition_35_tdi_110_kw_150_cv_s_tronic/ocasion/61488060-es/</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>61488060-es</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -872,6 +998,16 @@
           <t>166.343km /</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q5-attraction_2_0_tdi_clean_diesel_quattro_140_kw_190_cv_s_tronic/ocasion/61487973-es/</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>61487973-es</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -904,6 +1040,16 @@
           <t>89.966km /</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-a3_sportback-genuine_edition_35_tdi_110_kw_150_cv/ocasion/61487838-es/</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>61487838-es</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -936,6 +1082,16 @@
           <t>39.990km /</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-a3_sportback-s_line_35_tdi_110_kw_150_cv_s_tronic/ocasion/61487835-es/</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>61487835-es</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -968,6 +1124,16 @@
           <t>23.332km /</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-a1_sportback-adrenalin_black_edition_30_tfsi_81_kw_110_cv_s_tronic/ocasion/61487772-es/</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>61487772-es</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1000,26 +1166,36 @@
           <t>Madrid /</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q3_tfsie-advanced_45_tfsi_e_180_kw_245_cv_s_tronic/ocasion/61487733-es/</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>61487733-es</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q7 S line 50 TDI quattro 210 kW (286 CV) tiptronic </t>
+          <t xml:space="preserve">Audi Q3 TFSIe Advanced 45 TFSI e 180 kW (245 CV) S tronic </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>58.300 €</t>
+          <t>39.490 €</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MHEV</t>
+          <t>PHEV</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Diésel /</t>
+          <t>Híbrido Electro/Gasolina /</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1030,50 +1206,70 @@
       <c r="F19" t="inlineStr">
         <is>
           <t>Madrid /</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q3_tfsie-advanced_45_tfsi_e_180_kw_245_cv_s_tronic/ocasion/61487700-es/</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>61487700-es</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q3 TFSIe Advanced 45 TFSI e 180 kW (245 CV) S tronic </t>
+          <t xml:space="preserve">Audi Q2 Adrenalin 30 TDI 85 kW (116 CV) S tronic </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>39.490 €</t>
+          <t>31.400 €</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PHEV</t>
+          <t>Diésel /</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Híbrido Electro/Gasolina /</t>
+          <t>Gris /</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Negro /</t>
+          <t>Madrid /</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Madrid /</t>
+          <t>19.743km /</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-adrenalin_30_tdi_85_kw_116_cv_s_tronic/ocasion/61487697-es/</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>61487697-es</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q2 Adrenalin 30 TDI 85 kW (116 CV) S tronic </t>
+          <t xml:space="preserve">Audi Q2 design 30 TDI 85 kW (116 CV) S tronic </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31.400 €</t>
+          <t>23.150 €</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1083,29 +1279,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gris /</t>
+          <t>Gris Plata /</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Madrid /</t>
+          <t>Granada /</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>19.743km /</t>
+          <t>50.111km /</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-design_30_tdi_85_kw_116_cv_s_tronic/ocasion/61487676-es/</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>61487676-es</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q2 design 30 TDI 85 kW (116 CV) S tronic </t>
+          <t xml:space="preserve">Audi Q2 S line 30 TDI 85 kW (116 CV) </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23.150 €</t>
+          <t>28.400 €</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1120,61 +1326,81 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Granada /</t>
+          <t>Madrid /</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50.111km /</t>
+          <t>15.388km /</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-s_line_30_tdi_85_kw_116_cv/ocasion/61487556-es/</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>61487556-es</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q2 S line 30 TDI 85 kW (116 CV) </t>
+          <t xml:space="preserve">Audi Q2 Adrenalin 35 TFSI 110 kW (150 CV) S tronic </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28.400 €</t>
+          <t>35.000 €</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Diésel /</t>
+          <t>Gasolina /</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gris Plata /</t>
+          <t>Gris /</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Madrid /</t>
+          <t>Girona /</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15.388km /</t>
+          <t>20.167km /</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-adrenalin_35_tfsi_110_kw_150_cv_s_tronic/ocasion/61487478-es/</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>61487478-es</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q2 Adrenalin 35 TFSI 110 kW (150 CV) S tronic </t>
+          <t xml:space="preserve">Audi Q2 S line 30 TDI 85 kW (116 CV) </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>35.000 €</t>
+          <t>29.390 €</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gasolina /</t>
+          <t>Diésel /</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1184,12 +1410,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Girona /</t>
+          <t>Sevilla /</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>20.167km /</t>
+          <t>15.039km /</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-s_line_30_tdi_85_kw_116_cv/ocasion/61486344-es/</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>61486344-es</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1437,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>29.390 €</t>
+          <t>28.990 €</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,19 +1457,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>15.039km /</t>
+          <t>22.433km /</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-s_line_30_tdi_85_kw_116_cv/ocasion/61486263-es/</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>61486263-es</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q2 S line 30 TDI 85 kW (116 CV) </t>
+          <t xml:space="preserve">Audi Q2 Advanced 30 TDI 85 kW (116 CV) S tronic </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>28.990 €</t>
+          <t>19.990 €</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1243,39 +1489,49 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gris /</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sevilla /</t>
+          <t>Madrid /</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>22.433km /</t>
+          <t>135.046km /</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-advanced_30_tdi_85_kw_116_cv_s_tronic/ocasion/61481676-es/</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>61481676-es</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q2 Advanced 30 TDI 85 kW (116 CV) S tronic </t>
+          <t xml:space="preserve">Audi Q2 S line 35 TFSI 110 kW (150 CV) S tronic </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>19.990 €</t>
+          <t>27.400 €</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Diésel /</t>
+          <t>Gasolina /</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Negro /</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1285,29 +1541,39 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>135.046km /</t>
+          <t>45.492km /</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-s_line_35_tfsi_110_kw_150_cv_s_tronic/ocasion/61481496-es/</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>61481496-es</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q2 S line 35 TFSI 110 kW (150 CV) S tronic </t>
+          <t xml:space="preserve">Audi Q2 S line 30 TDI 85 kW (116 CV) S tronic </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27.400 €</t>
+          <t>28.300 €</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Gasolina /</t>
+          <t>Diésel /</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Negro /</t>
+          <t>Gris /</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1317,39 +1583,59 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>45.492km /</t>
+          <t>32.551km /</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-q2-s_line_30_tdi_85_kw_116_cv_s_tronic/ocasion/61481376-es/</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>61481376-es</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi Q2 S line 30 TDI 85 kW (116 CV) S tronic </t>
+          <t xml:space="preserve">Audi A3 Sportback TFSIe S line 40 TFSI e 150 kW (204 CV) S tronic </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>28.300 €</t>
+          <t>35.400 €</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Diésel /</t>
+          <t>PHEV</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Gris /</t>
+          <t>Híbrido Electro/Gasolina /</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Madrid /</t>
+          <t>Azul /</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32.551km /</t>
+          <t>Madrid /</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-a3_sportback_tfsie-s_line_40_tfsi_e_150_kw_204_cv_s_tronic/ocasion/61481349-es/</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>61481349-es</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1647,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>35.400 €</t>
+          <t>35.000 €</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1376,24 +1662,34 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Azul /</t>
+          <t>Blanco /</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Madrid /</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-a3_sportback_tfsie-s_line_40_tfsi_e_150_kw_204_cv_s_tronic/ocasion/61481346-es/</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>61481346-es</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audi A3 Sportback TFSIe S line 40 TFSI e 150 kW (204 CV) S tronic </t>
+          <t xml:space="preserve">Audi A3 Sportback TFSIe Genuine edition 40 TFSI e 150 kW (204 CV) S tronic </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>35.000 €</t>
+          <t>35.400 €</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1408,12 +1704,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Blanco /</t>
+          <t>Gris /</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Madrid /</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.motorflash.com/coche-de-segunda_mano/audi-a3_sportback_tfsie-genuine_edition_40_tfsi_e_150_kw_204_cv_s_tronic/ocasion/61481340-es/</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>61481340-es</t>
         </is>
       </c>
     </row>
